--- a/Parts-List/Operation-Parts.xlsx
+++ b/Parts-List/Operation-Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{826C428B-B104-4B6B-B3E5-4B05927B50BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C67195-0A9C-4FC7-8C90-D923D997EB2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="19200" windowHeight="10200" xr2:uid="{FB4D14B0-42C0-4B90-A8DE-E43218368B62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2275B386-4BCB-42AC-969F-6A0833771D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Hardware" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Parts List</t>
   </si>
@@ -69,7 +69,10 @@
     <t>8" SMA-BNC, Male-Male Cable</t>
   </si>
   <si>
-    <t>Should this just come from RS like the other wires?</t>
+    <t>885-8172</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
   <si>
     <t>Male SMA to Male SMA RG-58 Coaxial Cable, 50 Ω,</t>
@@ -78,9 +81,6 @@
     <t>885-7817</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>RS PRO Black Female SMA to Unterminated Coaxial Cable, 50 Ω</t>
   </si>
   <si>
@@ -138,9 +138,6 @@
     <t>TF1020A7</t>
   </si>
   <si>
-    <t>Add Instalation Charge</t>
-  </si>
-  <si>
     <t>DAQ board</t>
   </si>
   <si>
@@ -153,7 +150,7 @@
     <t>National Instruments</t>
   </si>
   <si>
-    <t>SBC-68A Noise Rejecting, Shielded I/) Connector Block</t>
+    <t>SBC-68A Noise Rejecting, Shielded I/O Connector Block</t>
   </si>
   <si>
     <t>782536-01</t>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>MSI S10226923 8GB Nvidia GeForce RTX 2070 ARMOR FH GDDR6 DP/HDMI TURING VR 4K PCI Express Graphics Card</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -573,28 +573,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D330BAE-6C62-4AAE-8228-09162838F3CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F6A705-1FBA-40C6-93B7-BBE0CE082393}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="101.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -611,14 +611,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -632,53 +632,57 @@
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>1300</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+      <c r="F4" s="4">
+        <f>D4*E4</f>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>10.34</v>
+      </c>
+      <c r="F5" s="4">
+        <f>D5*E5</f>
+        <v>20.68</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="9">
         <v>15.22</v>
       </c>
       <c r="F6" s="4">
         <f>D6*E6</f>
-        <v>60.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>45.660000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -686,20 +690,20 @@
         <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="9">
         <v>5.01</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7:F23" si="0">D7*E7</f>
-        <v>15.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F7:F10" si="0">D7*E7</f>
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -707,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
@@ -720,7 +724,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -741,7 +745,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -749,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -762,43 +766,68 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2812.14</v>
+      </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9"/>
+        <f>D13*E13</f>
+        <v>2812.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>468.18</v>
+      </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f>D14*E14</f>
+        <v>468.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -807,19 +836,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="9">
-        <v>2812.14</v>
+        <v>35.19</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>2812.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f>D15*E15</f>
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -828,177 +857,143 @@
         <v>1</v>
       </c>
       <c r="E16" s="9">
-        <v>468.18</v>
+        <v>2815.97</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>468.18</v>
+        <f>D16*E16</f>
+        <v>2815.97</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E17" s="9">
-        <v>35.19</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>35.19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
+      <c r="E19" s="9">
+        <v>630</v>
+      </c>
+      <c r="F19" s="4">
+        <f>D19*E19</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E18" s="9">
-        <v>2815.97</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>2815.97</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <v>330</v>
+      </c>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f>D20*E20</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="9">
-        <v>630</v>
+        <v>141</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
-        <v>330</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
+        <f>D21*E21</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <v>141</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="9"/>
-      <c r="F24" s="4"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>496.29</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24" si="1">D24*E24</f>
+        <v>992.58</v>
+      </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="4"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <f>SUM(F3:F24)</f>
+        <v>9288.4599999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E27" s="9"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="E28" s="9"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F30" s="4"/>
     </row>
   </sheetData>
